--- a/biology/Botanique/Traversia_baccharoides/Traversia_baccharoides.xlsx
+++ b/biology/Botanique/Traversia_baccharoides/Traversia_baccharoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Traversia baccharoides est une espèce de plantes à fleurs dicotylédones de la famille des Asteraceae, sous-famille des Asteroideae, endémique de Nouvelle-Zélande. C'est l'unique espèce du genre Traversia (genre monotypique). Ce sont des arbustes d'environ un mètre de haut qui se rencontrent dans le nord de l'île du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traversia baccharoides est un arbuste buissonnant et étalé, atteignant environ 1 mètre de haut, aux tiges sillonnées, à l'écorce squameuse. Les feuilles dentées, épaisses, coriaces et collantes ; longues de 50 à 80 mm, elles présentent un réseau de nervures enfoncées dans leur face supérieure. Les fleurs sont blanches, petites, avec quelques filaments saillants. Les graines, petites, sont duveteuses[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traversia baccharoides est un arbuste buissonnant et étalé, atteignant environ 1 mètre de haut, aux tiges sillonnées, à l'écorce squameuse. Les feuilles dentées, épaisses, coriaces et collantes ; longues de 50 à 80 mm, elles présentent un réseau de nervures enfoncées dans leur face supérieure. Les fleurs sont blanches, petites, avec quelques filaments saillants. Les graines, petites, sont duveteuses.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Traversia baccharoides se situe dans le nord de l'île du Sud, des régions de  Nelson et Marlborough jusqu'au nord de la région de Canterbury[3].
-Cette espèce croît dans les forêts montagnardes jusqu'aux fourrés subalpins, de 700 à  1400 mètres d'altitude. Elle se rencontre souvent à la lisière des forêts sur les parois des falaises, sur les pentes abruptes parsemées de rocailles, parmi les rochers ou au bas des talus d'éboulis, parmi d'autres arbustes bas[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Traversia baccharoides se situe dans le nord de l'île du Sud, des régions de  Nelson et Marlborough jusqu'au nord de la région de Canterbury.
+Cette espèce croît dans les forêts montagnardes jusqu'aux fourrés subalpins, de 700 à  1400 mètres d'altitude. Elle se rencontre souvent à la lisière des forêts sur les parois des falaises, sur les pentes abruptes parsemées de rocailles, parmi les rochers ou au bas des talus d'éboulis, parmi d'autres arbustes bas.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le nom générique, Traversia, est un hommage à William Thomas Locke Travers (en) (1819-1903), avocat, explorateur et  naturaliste irlandais qui vécut en Nouvelle-Zélande à partir de 1849.
 L'épithète spécifique, baccharoides, signifie « pseudo-Baccharis » (Baccharis est un genre de plante de la famille des Asteraceae).</t>
@@ -605,10 +623,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (25 octobre 2020)[4] :
-Senecio geminatus Kirk[5]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (25 octobre 2020) :
+Senecio geminatus Kirk
 Senecio germinatus Kirk</t>
         </is>
       </c>
